--- a/www/IndicatorsPerCountry/Canada_GDPperCapita_TerritorialRef_1948_2012_CCode_124.xlsx
+++ b/www/IndicatorsPerCountry/Canada_GDPperCapita_TerritorialRef_1948_2012_CCode_124.xlsx
@@ -501,13 +501,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Canada_GDPperCapita_TerritorialRef_1948_2012_CCode_124.xlsx
+++ b/www/IndicatorsPerCountry/Canada_GDPperCapita_TerritorialRef_1948_2012_CCode_124.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="171">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,442 +36,460 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>904</t>
+    <t>1441</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>1451</t>
-  </si>
-  <si>
-    <t>1695</t>
-  </si>
-  <si>
-    <t>1755</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>1854</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>1727</t>
-  </si>
-  <si>
-    <t>1637</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>1816</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2090</t>
-  </si>
-  <si>
-    <t>2231</t>
-  </si>
-  <si>
-    <t>2073</t>
-  </si>
-  <si>
-    <t>2075</t>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1852</t>
   </si>
   <si>
     <t>2120</t>
   </si>
   <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>2239</t>
-  </si>
-  <si>
-    <t>2378</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2371</t>
-  </si>
-  <si>
-    <t>2334</t>
-  </si>
-  <si>
-    <t>2420</t>
-  </si>
-  <si>
-    <t>2288</t>
-  </si>
-  <si>
-    <t>2512</t>
-  </si>
-  <si>
-    <t>2583</t>
-  </si>
-  <si>
-    <t>2796</t>
-  </si>
-  <si>
-    <t>2911</t>
-  </si>
-  <si>
-    <t>3097</t>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>2702</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>2718</t>
+  </si>
+  <si>
+    <t>2936</t>
+  </si>
+  <si>
+    <t>2955</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>2616</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>2609</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>2895</t>
+  </si>
+  <si>
+    <t>3252</t>
+  </si>
+  <si>
+    <t>3362</t>
   </si>
   <si>
     <t>3331</t>
   </si>
   <si>
-    <t>3334</t>
-  </si>
-  <si>
-    <t>3280</t>
-  </si>
-  <si>
-    <t>3562</t>
-  </si>
-  <si>
-    <t>3846</t>
-  </si>
-  <si>
-    <t>3875</t>
-  </si>
-  <si>
-    <t>3572</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>4066</t>
-  </si>
-  <si>
-    <t>4213</t>
-  </si>
-  <si>
-    <t>4377</t>
-  </si>
-  <si>
-    <t>4447</t>
-  </si>
-  <si>
-    <t>4025</t>
-  </si>
-  <si>
-    <t>4233</t>
-  </si>
-  <si>
-    <t>4646</t>
-  </si>
-  <si>
-    <t>4801</t>
-  </si>
-  <si>
-    <t>4441</t>
-  </si>
-  <si>
-    <t>4019</t>
-  </si>
-  <si>
-    <t>3861</t>
-  </si>
-  <si>
-    <t>3357</t>
-  </si>
-  <si>
-    <t>3793</t>
-  </si>
-  <si>
-    <t>3976</t>
-  </si>
-  <si>
-    <t>3977</t>
-  </si>
-  <si>
-    <t>4340</t>
-  </si>
-  <si>
-    <t>4497</t>
-  </si>
-  <si>
-    <t>4847</t>
-  </si>
-  <si>
-    <t>5172</t>
-  </si>
-  <si>
-    <t>5065</t>
-  </si>
-  <si>
-    <t>4811</t>
+    <t>3556</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>3379</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3569</t>
+  </si>
+  <si>
+    <t>3790</t>
+  </si>
+  <si>
+    <t>3840</t>
+  </si>
+  <si>
+    <t>3779</t>
+  </si>
+  <si>
+    <t>3720</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>3647</t>
   </si>
   <si>
     <t>4004</t>
   </si>
   <si>
-    <t>3671</t>
-  </si>
-  <si>
-    <t>3370</t>
-  </si>
-  <si>
-    <t>3691</t>
-  </si>
-  <si>
-    <t>3951</t>
-  </si>
-  <si>
-    <t>4124</t>
-  </si>
-  <si>
-    <t>4473</t>
-  </si>
-  <si>
-    <t>4546</t>
-  </si>
-  <si>
-    <t>4768</t>
-  </si>
-  <si>
-    <t>5368</t>
-  </si>
-  <si>
-    <t>6051</t>
-  </si>
-  <si>
-    <t>7033</t>
-  </si>
-  <si>
-    <t>7263</t>
-  </si>
-  <si>
-    <t>7443</t>
-  </si>
-  <si>
-    <t>7133</t>
-  </si>
-  <si>
-    <t>6931</t>
+    <t>4117</t>
+  </si>
+  <si>
+    <t>4457</t>
+  </si>
+  <si>
+    <t>4640</t>
+  </si>
+  <si>
+    <t>4937</t>
+  </si>
+  <si>
+    <t>5310</t>
+  </si>
+  <si>
+    <t>5314</t>
+  </si>
+  <si>
+    <t>5228</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>6130</t>
+  </si>
+  <si>
+    <t>6177</t>
+  </si>
+  <si>
+    <t>5694</t>
+  </si>
+  <si>
+    <t>6137</t>
+  </si>
+  <si>
+    <t>6481</t>
+  </si>
+  <si>
+    <t>6715</t>
+  </si>
+  <si>
+    <t>6977</t>
   </si>
   <si>
     <t>7088</t>
   </si>
   <si>
-    <t>7065</t>
-  </si>
-  <si>
-    <t>7064</t>
-  </si>
-  <si>
-    <t>7291</t>
-  </si>
-  <si>
-    <t>7533</t>
-  </si>
-  <si>
-    <t>7833</t>
-  </si>
-  <si>
-    <t>7984</t>
-  </si>
-  <si>
-    <t>7699</t>
-  </si>
-  <si>
-    <t>8201</t>
-  </si>
-  <si>
-    <t>8652</t>
-  </si>
-  <si>
-    <t>8607</t>
-  </si>
-  <si>
-    <t>8534</t>
-  </si>
-  <si>
-    <t>8676</t>
-  </si>
-  <si>
-    <t>8753</t>
-  </si>
-  <si>
-    <t>8833</t>
-  </si>
-  <si>
-    <t>9277</t>
-  </si>
-  <si>
-    <t>9566</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>10473</t>
-  </si>
-  <si>
-    <t>10946</t>
-  </si>
-  <si>
-    <t>11078</t>
-  </si>
-  <si>
-    <t>11479</t>
-  </si>
-  <si>
-    <t>11912</t>
-  </si>
-  <si>
-    <t>12050</t>
-  </si>
-  <si>
-    <t>12562</t>
+    <t>6416</t>
+  </si>
+  <si>
+    <t>6747</t>
+  </si>
+  <si>
+    <t>7406</t>
+  </si>
+  <si>
+    <t>7653</t>
+  </si>
+  <si>
+    <t>7079</t>
+  </si>
+  <si>
+    <t>6406</t>
+  </si>
+  <si>
+    <t>6154</t>
+  </si>
+  <si>
+    <t>5351</t>
+  </si>
+  <si>
+    <t>6046</t>
+  </si>
+  <si>
+    <t>6338</t>
+  </si>
+  <si>
+    <t>6339</t>
+  </si>
+  <si>
+    <t>6918</t>
+  </si>
+  <si>
+    <t>7168</t>
+  </si>
+  <si>
+    <t>7726</t>
+  </si>
+  <si>
+    <t>8244</t>
+  </si>
+  <si>
+    <t>8074</t>
+  </si>
+  <si>
+    <t>7669</t>
+  </si>
+  <si>
+    <t>6382</t>
+  </si>
+  <si>
+    <t>5852</t>
+  </si>
+  <si>
+    <t>5372</t>
+  </si>
+  <si>
+    <t>5883</t>
+  </si>
+  <si>
+    <t>6298</t>
+  </si>
+  <si>
+    <t>6574</t>
+  </si>
+  <si>
+    <t>7130</t>
+  </si>
+  <si>
+    <t>7246</t>
+  </si>
+  <si>
+    <t>7600</t>
+  </si>
+  <si>
+    <t>8557</t>
+  </si>
+  <si>
+    <t>9645</t>
+  </si>
+  <si>
+    <t>11210</t>
+  </si>
+  <si>
+    <t>11577</t>
+  </si>
+  <si>
+    <t>11864</t>
+  </si>
+  <si>
+    <t>11370</t>
+  </si>
+  <si>
+    <t>11048</t>
+  </si>
+  <si>
+    <t>11298</t>
+  </si>
+  <si>
+    <t>11261</t>
+  </si>
+  <si>
+    <t>11260</t>
+  </si>
+  <si>
+    <t>11622</t>
+  </si>
+  <si>
+    <t>12007</t>
+  </si>
+  <si>
+    <t>12486</t>
+  </si>
+  <si>
+    <t>12726</t>
+  </si>
+  <si>
+    <t>12272</t>
   </si>
   <si>
     <t>13072</t>
   </si>
   <si>
-    <t>13838</t>
-  </si>
-  <si>
-    <t>14205</t>
-  </si>
-  <si>
-    <t>14316</t>
-  </si>
-  <si>
-    <t>14902</t>
-  </si>
-  <si>
-    <t>15223</t>
-  </si>
-  <si>
-    <t>15680</t>
-  </si>
-  <si>
-    <t>16170</t>
-  </si>
-  <si>
-    <t>16176</t>
-  </si>
-  <si>
-    <t>16472</t>
-  </si>
-  <si>
-    <t>15779</t>
-  </si>
-  <si>
-    <t>16076</t>
-  </si>
-  <si>
-    <t>16836</t>
-  </si>
-  <si>
-    <t>17582</t>
-  </si>
-  <si>
-    <t>17862</t>
-  </si>
-  <si>
-    <t>18348</t>
-  </si>
-  <si>
-    <t>18993</t>
-  </si>
-  <si>
-    <t>19108</t>
-  </si>
-  <si>
-    <t>18872.3885055</t>
-  </si>
-  <si>
-    <t>18262.4637686</t>
-  </si>
-  <si>
-    <t>18146.7246852</t>
-  </si>
-  <si>
-    <t>18309.1076884</t>
-  </si>
-  <si>
-    <t>18941.7683998</t>
-  </si>
-  <si>
-    <t>19237.7977086</t>
-  </si>
-  <si>
-    <t>19330.5966232</t>
-  </si>
-  <si>
-    <t>19961.8228974</t>
-  </si>
-  <si>
-    <t>20612.3873465</t>
-  </si>
-  <si>
-    <t>21563.0406752</t>
-  </si>
-  <si>
-    <t>22487.7081862</t>
-  </si>
-  <si>
-    <t>22686.6455852</t>
-  </si>
-  <si>
-    <t>23155.1365698</t>
-  </si>
-  <si>
-    <t>23406.9802702</t>
-  </si>
-  <si>
-    <t>23952.908626</t>
-  </si>
-  <si>
-    <t>24484.3446535</t>
-  </si>
-  <si>
-    <t>24967.1672074</t>
-  </si>
-  <si>
-    <t>25300.0838597</t>
-  </si>
-  <si>
-    <t>25262.0711354</t>
-  </si>
-  <si>
-    <t>24361.0214168</t>
-  </si>
-  <si>
-    <t>24941.2356256</t>
+    <t>13791</t>
+  </si>
+  <si>
+    <t>13719</t>
+  </si>
+  <si>
+    <t>13603</t>
+  </si>
+  <si>
+    <t>13829</t>
+  </si>
+  <si>
+    <t>13952</t>
+  </si>
+  <si>
+    <t>14080</t>
+  </si>
+  <si>
+    <t>14787</t>
+  </si>
+  <si>
+    <t>15248</t>
+  </si>
+  <si>
+    <t>15938</t>
+  </si>
+  <si>
+    <t>16694</t>
+  </si>
+  <si>
+    <t>17448</t>
+  </si>
+  <si>
+    <t>17658</t>
+  </si>
+  <si>
+    <t>18297</t>
+  </si>
+  <si>
+    <t>18988</t>
+  </si>
+  <si>
+    <t>19207</t>
+  </si>
+  <si>
+    <t>20024</t>
+  </si>
+  <si>
+    <t>20837</t>
+  </si>
+  <si>
+    <t>22058</t>
+  </si>
+  <si>
+    <t>22643</t>
+  </si>
+  <si>
+    <t>22819</t>
+  </si>
+  <si>
+    <t>23754</t>
+  </si>
+  <si>
+    <t>24265</t>
+  </si>
+  <si>
+    <t>24994</t>
+  </si>
+  <si>
+    <t>25775</t>
+  </si>
+  <si>
+    <t>25784</t>
+  </si>
+  <si>
+    <t>26256</t>
+  </si>
+  <si>
+    <t>25151</t>
+  </si>
+  <si>
+    <t>25625</t>
+  </si>
+  <si>
+    <t>26836</t>
+  </si>
+  <si>
+    <t>28025</t>
+  </si>
+  <si>
+    <t>28472</t>
+  </si>
+  <si>
+    <t>29246</t>
+  </si>
+  <si>
+    <t>30275</t>
+  </si>
+  <si>
+    <t>30458</t>
+  </si>
+  <si>
+    <t>30082</t>
+  </si>
+  <si>
+    <t>29151.6968488599</t>
+  </si>
+  <si>
+    <t>29141.1923292858</t>
+  </si>
+  <si>
+    <t>29657.574356814</t>
+  </si>
+  <si>
+    <t>30745.8228461219</t>
+  </si>
+  <si>
+    <t>31330.720086353</t>
+  </si>
+  <si>
+    <t>31594.2418094349</t>
+  </si>
+  <si>
+    <t>32709.6916027933</t>
+  </si>
+  <si>
+    <t>33785.7463160833</t>
+  </si>
+  <si>
+    <t>35345.7209562989</t>
+  </si>
+  <si>
+    <t>36942.5622942857</t>
+  </si>
+  <si>
+    <t>37307.2059332395</t>
+  </si>
+  <si>
+    <t>38123.9864239411</t>
+  </si>
+  <si>
+    <t>38559.975902687</t>
+  </si>
+  <si>
+    <t>39491.5700305462</t>
+  </si>
+  <si>
+    <t>40485.0192403627</t>
+  </si>
+  <si>
+    <t>41247.1492966809</t>
+  </si>
+  <si>
+    <t>41806.8652058092</t>
+  </si>
+  <si>
+    <t>41896.4255869481</t>
+  </si>
+  <si>
+    <t>40312.6216510629</t>
+  </si>
+  <si>
+    <t>41209.4261814782</t>
+  </si>
+  <si>
+    <t>42197</t>
+  </si>
+  <si>
+    <t>42445</t>
+  </si>
+  <si>
+    <t>42994</t>
+  </si>
+  <si>
+    <t>43607</t>
+  </si>
+  <si>
+    <t>43619</t>
+  </si>
+  <si>
+    <t>43745</t>
   </si>
   <si>
     <t>Description</t>
@@ -3822,6 +3840,108 @@
         <v>152</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3837,50 +3957,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
